--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value333.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value333.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.6558396034183102</v>
+        <v>1.045997262001038</v>
       </c>
       <c r="B1">
-        <v>1.034990690659411</v>
+        <v>-1</v>
       </c>
       <c r="C1">
-        <v>2.917949297221795</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>3.953818182087973</v>
+        <v>-1</v>
       </c>
       <c r="E1">
-        <v>1.388910321873644</v>
+        <v>1.116554260253906</v>
       </c>
     </row>
   </sheetData>
